--- a/step_by_step_cnn(inertia).xlsx
+++ b/step_by_step_cnn(inertia).xlsx
@@ -782,8 +782,8 @@
   </sheetPr>
   <dimension ref="A1:AV96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O43" activeCellId="0" sqref="O43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -793,7 +793,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.06"/>
